--- a/Moist Sensor Calibration.xlsx
+++ b/Moist Sensor Calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hanze\OneDrive - Hanzehogeschool Groningen\Master\11 - Project ESKA\Drying-process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{681DEAF3-12C2-4ABF-8C39-C449DD99ADF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C79CE01A-6DE7-4712-B28D-238275780DB6}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{681DEAF3-12C2-4ABF-8C39-C449DD99ADF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A34F25D1-58C5-44A7-A06C-B3F53CD520D8}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="768" windowWidth="19836" windowHeight="10872" activeTab="1" xr2:uid="{B7C2B21E-C8C2-4A13-8888-2A7303C728D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B7C2B21E-C8C2-4A13-8888-2A7303C728D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Moist sensor calibration with heat bed around 90 degrees</t>
   </si>
   <si>
-    <t>Moist sensor calibration with heat bed around 90 to 100 degrees</t>
-  </si>
-  <si>
     <t>Below 10 grams of water the curve is non linear, the aproximated line is not taking these values.</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>water+towel</t>
+  </si>
+  <si>
+    <t>Moisture sensor calibration with heat bed around 90 to 100 degrees</t>
   </si>
 </sst>
 </file>
@@ -65,7 +65,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +81,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,11 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,13 +633,27 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.31447486914912304"/>
-                  <c:y val="-0.13217592886963248"/>
+                  <c:x val="-0.43004574680937857"/>
+                  <c:y val="-9.5303581883312019E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -759,6 +780,7 @@
         <c:axId val="1054860080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -776,6 +798,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sensor readings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -838,6 +915,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water content (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2095,9 +2227,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>225287</xdr:colOff>
+      <xdr:colOff>554935</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>47210</xdr:rowOff>
+      <xdr:rowOff>182217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2430,14 +2562,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>418</v>
       </c>
@@ -2445,7 +2577,7 @@
         <v>114.2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>422</v>
       </c>
@@ -2453,7 +2585,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>443</v>
       </c>
@@ -2461,7 +2593,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>489</v>
       </c>
@@ -2469,7 +2601,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>504</v>
       </c>
@@ -2485,41 +2617,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A31E19E-D62B-4A23-8F78-3A41522DDADF}">
-  <dimension ref="B1:D16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
       <c r="B4" s="1">
         <v>371</v>
       </c>
@@ -2530,8 +2694,17 @@
       <c r="D4" s="2">
         <v>105.4</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>382</v>
       </c>
@@ -2542,8 +2715,17 @@
       <c r="D5" s="2">
         <v>91.7</v>
       </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>389</v>
       </c>
@@ -2554,8 +2736,17 @@
       <c r="D6" s="2">
         <v>86.4</v>
       </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>395</v>
       </c>
@@ -2566,8 +2757,17 @@
       <c r="D7" s="2">
         <v>80.400000000000006</v>
       </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" s="1">
         <v>401</v>
       </c>
@@ -2578,8 +2778,17 @@
       <c r="D8" s="2">
         <v>74.2</v>
       </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="1">
         <v>407</v>
       </c>
@@ -2590,8 +2799,17 @@
       <c r="D9" s="2">
         <v>66.400000000000006</v>
       </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="1">
         <v>423</v>
       </c>
@@ -2602,8 +2820,17 @@
       <c r="D10" s="2">
         <v>55.4</v>
       </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>428</v>
       </c>
@@ -2614,8 +2841,17 @@
       <c r="D11" s="2">
         <v>47.7</v>
       </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="1">
         <v>445</v>
       </c>
@@ -2626,8 +2862,17 @@
       <c r="D12" s="2">
         <v>46.2</v>
       </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="3">
         <v>473</v>
       </c>
@@ -2638,8 +2883,17 @@
       <c r="D13" s="2">
         <v>43</v>
       </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" s="3">
         <v>485</v>
       </c>
@@ -2650,8 +2904,17 @@
       <c r="D14" s="2">
         <v>40.5</v>
       </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="3">
         <v>495</v>
       </c>
@@ -2662,8 +2925,17 @@
       <c r="D15" s="2">
         <v>39.700000000000003</v>
       </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="3">
         <v>503</v>
       </c>
@@ -2674,6 +2946,60 @@
       <c r="D16" s="2">
         <v>39.200000000000003</v>
       </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2905,18 +3231,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2939,26 +3265,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75F20F5C-A3F8-48A3-90D0-3B4EB61D949A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0cc9ed91-e224-45e3-be94-bbbbdcee9564"/>
+    <ds:schemaRef ds:uri="da203bb8-6c80-4a15-8541-70f35ad24a05"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4EBC1DF-EE07-421B-9715-46BED092FE46}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75F20F5C-A3F8-48A3-90D0-3B4EB61D949A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="0cc9ed91-e224-45e3-be94-bbbbdcee9564"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="da203bb8-6c80-4a15-8541-70f35ad24a05"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>